--- a/medicine/Enfance/Eveline_Hasler/Eveline_Hasler.xlsx
+++ b/medicine/Enfance/Eveline_Hasler/Eveline_Hasler.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eveline Hasler, née le 22 mars 1933 à Glaris, est une écrivaine suisse allemande.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eveline Hasler a étudié l'histoire et la psychologie à Fribourg et Paris. Elle a ensuite travaillé comme enseignante. Elle vit au Tessin. Elle a commencé à écrire des livres pour enfants dans les années 1960[1],[2],[3],[4]. En 1979, elle publie un roman biographique (Novemberinsel) puis des romans historiques sur la Suisse[2]. Hasler a aussi écrit de la poésie. Elle reçoit de nombreuses récompenses pour ses livres et certains sont adaptés au cinéma, à la télévision ou encore à la radio[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eveline Hasler a étudié l'histoire et la psychologie à Fribourg et Paris. Elle a ensuite travaillé comme enseignante. Elle vit au Tessin. Elle a commencé à écrire des livres pour enfants dans les années 1960. En 1979, elle publie un roman biographique (Novemberinsel) puis des romans historiques sur la Suisse. Hasler a aussi écrit de la poésie. Elle reçoit de nombreuses récompenses pour ses livres et certains sont adaptés au cinéma, à la télévision ou encore à la radio,.
 </t>
         </is>
       </c>
@@ -544,8 +558,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Novemberinsel: Erzählung, 1979
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Novemberinsel: Erzählung, 1979
 Anna Göldin, dernière sorcière : Roman, traduit par Gilbert Musy, 1984 (Anna Göldin. Letzte Hexe, 1982)
 Ibicaba. Le Paradis dans la tête, traduit par Monique Picard, 1988 (Ibicaba. Das Paradies in den Köpfen, 1985)
 Le Géant dans l'arbre, traduit par Colette Kowalski, 1992 (Der Riese im Baum, 1988)
@@ -554,9 +573,43 @@
 Tells Tochter. Julie Bondeli und die Zeit der Freiheit, 2004
 Stein bedeutet Liebe. Regina Ullmann und Otto Gross, 2007
 Mit dem letzten Schiff: Der gefährliche Auftrag von Varian Fry, 2013
-Stürmische Jahre: Die Manns, die Riesers, die Schwarzenbachs, 2015
-Livres jeunesse
-Stop, Daniela! sowie Die Eidechse mit den Similisteinen und andere Erzählungen, 1962
+Stürmische Jahre: Die Manns, die Riesers, die Schwarzenbachs, 2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Eveline_Hasler</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eveline_Hasler</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Livres jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Stop, Daniela! sowie Die Eidechse mit den Similisteinen und andere Erzählungen, 1962
 Ferdi und die Angelrute, illustré par Robert Wyss, 1963
 Adieu Paris, adieu Catherine, 1966
 Komm wieder, Pepino, 1967
@@ -595,57 +648,127 @@
 Die Riesin, illustré par Renate Seelig, 1996
 Hexe Lakritze und die Zauberkugel, illustré par Ulrike Mühlhoff, 2006
 Die Nacht im Zauberwald : Nach einer Sage aus der Südschweiz, illustré par Käthi Bhend, 2006
-Schultüten-Geschichten, illustré par Karoline Kehr, 2007
-Prose
-Der Zeitreisende. Die Visionen des Henry Dunant., 1994
+Schultüten-Geschichten, illustré par Karoline Kehr, 2007</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Eveline_Hasler</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eveline_Hasler</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Prose</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Der Zeitreisende. Die Visionen des Henry Dunant., 1994
 Die Vogelmacherin. Die Geschichte von Hexenkindern., 1997
 Der Jubiläumsapfel, 1998
 Die namenlose Geliebte, 1999
 Spaziergänge durch mein Tessin, 2002
-Und werde immer Ihr Freund sein, 2010
-Poésie
-Freiräume, 1980
+Und werde immer Ihr Freund sein, 2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Eveline_Hasler</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eveline_Hasler</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Poésie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Freiräume, 1980
 Gedichte, 1986
 Auf Wörtern reisen, 1993
 Sätzlinge, 2000</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Eveline_Hasler</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Eveline_Hasler</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Récompenses et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1968 et 1977 [4] : Diplôme du mérite du Prix Hans-Christian-Andersen[2],[4]
-1978 : Prix suisse du livre pour la jeunesse[2],[4]
-1980 : Prix de la Fondation Schiller suisse[2],[3],[4]
-1985 : Prix des Critiques en herbe de Bologne[3],[4]
-1989 : Prix de littérature Schubart[3],[4]
-1991 : Prix littéraire de la ville de Zürich[2],[4]
-1994 : Prix culturel de la ville de Saint-Gall[2],[3],[4]
-1994 : Prix Droste de la ville de Meersburg[3],[4]
-1999 : Prix Justinus-Kerner de la ville de Weinberg[3],[4]</t>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1968 et 1977  : Diplôme du mérite du Prix Hans-Christian-Andersen,
+1978 : Prix suisse du livre pour la jeunesse,
+1980 : Prix de la Fondation Schiller suisse
+1985 : Prix des Critiques en herbe de Bologne,
+1989 : Prix de littérature Schubart,
+1991 : Prix littéraire de la ville de Zürich,
+1994 : Prix culturel de la ville de Saint-Gall
+1994 : Prix Droste de la ville de Meersburg,
+1999 : Prix Justinus-Kerner de la ville de Weinberg,</t>
         </is>
       </c>
     </row>
